--- a/projectfile/2024 1st project.xlsx
+++ b/projectfile/2024 1st project.xlsx
@@ -1154,50 +1154,155 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1229,107 +1334,23 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1340,61 +1361,40 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1412,6 +1412,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>624997</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30672</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373380" y="5143500"/>
+          <a:ext cx="1806097" cy="2217612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68581</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403861</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>86081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2446021" y="5128260"/>
+          <a:ext cx="1752600" cy="2288261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4351020" y="5219701"/>
+          <a:ext cx="2308860" cy="2044186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152703</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="5265420"/>
+          <a:ext cx="3497883" cy="922100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541021</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7002781" y="6438900"/>
+          <a:ext cx="3314700" cy="843299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12736</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5356860" y="8656320"/>
+          <a:ext cx="4203736" cy="1036319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>170601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="7581900"/>
+          <a:ext cx="3924300" cy="2205141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137161</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>94373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364481" y="7505700"/>
+          <a:ext cx="3558540" cy="871613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1683,8 +2040,8 @@
   </sheetPr>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -1703,53 +2060,53 @@
   <sheetData>
     <row r="1" spans="1:22" ht="12" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
     </row>
     <row r="2" spans="1:22" ht="40.200000000000003" customHeight="1" thickBot="1">
       <c r="A2" s="23"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" thickTop="1">
       <c r="A3" s="1"/>
@@ -1784,64 +2141,64 @@
       <c r="D4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="86" t="s">
+      <c r="J4" s="78"/>
+      <c r="K4" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="93" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
     </row>
     <row r="6" spans="1:22" ht="21" customHeight="1">
       <c r="A6" s="9"/>
@@ -1896,16 +2253,16 @@
       <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="91"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="24">
         <v>45434</v>
       </c>
@@ -1951,80 +2308,80 @@
     </row>
     <row r="9" spans="1:22" ht="21" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="57">
+      <c r="B9" s="92">
         <v>1</v>
       </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="63" t="s">
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="64"/>
+      <c r="H9" s="99"/>
       <c r="I9" s="31"/>
       <c r="J9" s="25"/>
       <c r="K9" s="26"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="47"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="113"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
-      <c r="V9" s="111" t="s">
+      <c r="V9" s="52" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="21" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="57"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="63" t="s">
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="64"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="31"/>
       <c r="J10" s="25"/>
       <c r="K10" s="26"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="50"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="116"/>
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="28"/>
-      <c r="V10" s="109"/>
+      <c r="V10" s="53"/>
     </row>
     <row r="11" spans="1:22" ht="21" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="57"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="37"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="65" t="s">
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="42" t="s">
+      <c r="H11" s="101"/>
+      <c r="I11" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="107"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
@@ -2032,180 +2389,180 @@
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="28"/>
-      <c r="S11" s="51" t="s">
+      <c r="S11" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="109"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="53"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="57"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="65" t="s">
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101" t="s">
+      <c r="H12" s="101"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="102"/>
-      <c r="N12" s="103"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="110"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="28"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="109"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="53"/>
     </row>
     <row r="13" spans="1:22" ht="21" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="69">
+      <c r="B13" s="83">
         <v>2</v>
       </c>
       <c r="C13" s="38"/>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="74" t="s">
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="112" t="s">
+      <c r="H13" s="89"/>
+      <c r="I13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="96"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="33"/>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
-      <c r="V13" s="109"/>
+      <c r="V13" s="53"/>
     </row>
     <row r="14" spans="1:22" ht="21" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="69"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="67" t="s">
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="97"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="43"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="29"/>
       <c r="S14" s="30"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="109"/>
+      <c r="V14" s="53"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="69"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="67" t="s">
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="118" t="s">
+      <c r="H15" s="82"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="113"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="97"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="43"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
       <c r="S15" s="30"/>
       <c r="T15" s="30"/>
       <c r="U15" s="30"/>
-      <c r="V15" s="109"/>
+      <c r="V15" s="53"/>
     </row>
     <row r="16" spans="1:22" ht="21" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="69"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="67" t="s">
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="97"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="43"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="30"/>
       <c r="T16" s="30"/>
       <c r="U16" s="30"/>
-      <c r="V16" s="109"/>
+      <c r="V16" s="53"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1" thickBot="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="69"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="39"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="76" t="s">
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="120" t="s">
+      <c r="H17" s="91"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="122"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="104"/>
       <c r="S17" s="32"/>
       <c r="T17" s="32"/>
       <c r="U17" s="32"/>
-      <c r="V17" s="110"/>
+      <c r="V17" s="54"/>
     </row>
     <row r="18" spans="1:22" ht="21" customHeight="1">
       <c r="A18" s="9"/>
@@ -2329,18 +2686,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="V9:V17"/>
-    <mergeCell ref="I13:K14"/>
-    <mergeCell ref="L15:N16"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="P4:V4"/>
     <mergeCell ref="B1:V2"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:M4"/>
@@ -2357,6 +2702,18 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="V9:V17"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="L15:N16"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="O17:R17"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="L12:N12"/>
@@ -2366,5 +2723,6 @@
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>